--- a/results.xlsx
+++ b/results.xlsx
@@ -393,12 +393,12 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A21"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="50.5703125" customWidth="1" min="1" max="1"/>
+    <col width="50.5546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -411,140 +411,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Python - разработчик (Django/DRF)</t>
+          <t>Разработчик Python Senior/TeamLead</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Python-разработчик в Цифровые поверхности Салют (Сценарная разработка)</t>
+          <t>Data Engineer</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Преподаватель по Python разработке в ИТ-школу</t>
+          <t>Senior Full-stack Python Developer, IAEA (Vienna, Austria), on-site</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Go разработчик со знаниями Python</t>
+          <t>Middle Python Developer / Django Developer</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Преподаватель по Python</t>
+          <t>Python разработчик</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Middle Python Developer / Django Developer</t>
+          <t>Senior Full-stack Python Developer, IAEA (Vienna, Austria), on-site</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Программист Python (Junior, Middle, Senior)</t>
+          <t>Python-разработчик</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python разработчик</t>
+          <t>Руководитель отдела разработки и тестирования / TeamLead команды разработки</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Программист Python (Junior, Middle, Senior)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Python разработчик</t>
+          <t>DevOps инженер</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Программист Python Junior</t>
+          <t>DevOps инженер (OTT platforms)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Программист Python</t>
+          <t>Intern / Junior Python backend developer</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python разработчик</t>
+          <t>Стажер-разработчик Python (компьютерное зрение), удалённо</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Разработчик Python</t>
+          <t>Python-разработчик</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Разработчик Python</t>
+          <t>Программист Python</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Программист/Python-разработчик</t>
+          <t>Junior Программист/Разработчик Python</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Программист Python</t>
+          <t>Junior Python Backend Developer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Python-разработчик (Django, DRF)</t>
+          <t>Программист Python</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Junior Data scientist (NLP)</t>
+          <t>Junior Python Programmer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Middle Python Backend Developer</t>
+          <t>ML / CV Engineer</t>
         </is>
       </c>
     </row>
